--- a/fsedu_webapp.00.schedule.xlsx
+++ b/fsedu_webapp.00.schedule.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\Documents\github-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7170" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Config " sheetId="4" r:id="rId1"/>
-    <sheet name="01. GitHub " sheetId="5" r:id="rId2"/>
+    <sheet name="01. GitHub " sheetId="5" r:id="rId1"/>
+    <sheet name="Config " sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="非稼働日" localSheetId="0">'Config '!$C$3:$C$23</definedName>
+    <definedName name="非稼働日" localSheetId="1">'Config '!$C$3:$C$23</definedName>
     <definedName name="非稼働日">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -369,37 +369,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Kotlin助走読本</t>
-    <rPh sb="6" eb="8">
-      <t>ジョソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドクホン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Learn Kotlin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>公式リファレンス</t>
-    <rPh sb="0" eb="2">
-      <t>コウシキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>google-無料学習</t>
-    <rPh sb="7" eb="9">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>02.アプリ開発</t>
     <rPh sb="6" eb="8">
       <t>カイハツ</t>
@@ -450,22 +419,6 @@
   </si>
   <si>
     <t>22.0h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5.0h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>20.0h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>20.0h</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1016,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,6 +1126,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4904,308 +4861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6">
-        <v>44067</v>
-      </c>
-      <c r="C3" s="4">
-        <v>41433</v>
-      </c>
-      <c r="D3" s="7">
-        <f>WEEKDAY(C3,1)</f>
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="74"/>
-      <c r="C4" s="4">
-        <v>41434</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D23" si="0">WEEKDAY(C4,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="4">
-        <v>41440</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="75"/>
-      <c r="C6" s="4">
-        <v>41441</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="75"/>
-      <c r="C7" s="4">
-        <v>41447</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
-      <c r="C8" s="4">
-        <v>41448</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="4">
-        <v>41454</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="75"/>
-      <c r="C10" s="4">
-        <v>41455</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="75"/>
-      <c r="C11" s="4">
-        <v>41461</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="75"/>
-      <c r="C12" s="4">
-        <v>41462</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
-      <c r="C13" s="4">
-        <v>41468</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="75"/>
-      <c r="C14" s="4">
-        <v>41469</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="75"/>
-      <c r="C15" s="4">
-        <v>41475</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="75"/>
-      <c r="C16" s="4">
-        <v>41476</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="75"/>
-      <c r="C17" s="4">
-        <v>41482</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="75"/>
-      <c r="C18" s="4">
-        <v>41483</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="75"/>
-      <c r="C19" s="4">
-        <v>41489</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="75"/>
-      <c r="C20" s="4">
-        <v>41490</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
-      <c r="C21" s="4">
-        <v>41496</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="75"/>
-      <c r="C22" s="4">
-        <v>41497</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="76"/>
-      <c r="C23" s="4">
-        <v>41499</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C31" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:B23"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="51" ySplit="4" topLeftCell="AZ5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="51" ySplit="4" topLeftCell="BQ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AZ1" sqref="AZ1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D60:F61"/>
+      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5215,7 +4877,9 @@
     <col min="4" max="4" width="39" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.875" style="8" customWidth="1"/>
-    <col min="8" max="74" width="3.125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="68" width="3.125" style="8" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="0.125" style="8" customWidth="1"/>
+    <col min="70" max="74" width="12.75" style="8" hidden="1" customWidth="1"/>
     <col min="75" max="218" width="3.125" style="8" customWidth="1"/>
     <col min="219" max="16384" width="9" style="8"/>
   </cols>
@@ -5501,249 +5165,249 @@
       <c r="CB2" s="9"/>
       <c r="CC2" s="9"/>
       <c r="CD2" s="9"/>
-      <c r="CE2" s="9" t="e">
+      <c r="CE2" s="9">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CF2" s="9" t="e">
+        <v>9</v>
+      </c>
+      <c r="CF2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CG2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CG2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CH2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CH2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CI2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CI2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CJ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CJ2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CK2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CK2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CL2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CL2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CM2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CM2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CN2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CN2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CO2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CO2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CP2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CP2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CQ2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CR2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CR2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CS2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CS2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CT2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CT2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CU2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CU2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CV2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CV2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CW2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CW2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CX2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CX2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CY2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CY2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CZ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="CZ2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DA2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DA2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DB2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DB2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DC2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DC2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DD2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DD2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DE2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DE2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DF2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DF2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DG2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DG2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DH2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DH2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DI2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DI2" s="9">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DJ2" s="9" t="e">
+        <v>10</v>
+      </c>
+      <c r="DJ2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DK2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DK2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DL2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DL2" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DM2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DM2" s="9" t="str">
         <f t="shared" ref="DM2:EM2" si="2">IF(DAY(DM3)=1,MONTH(DM3),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DN2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DN2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DO2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DO2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DP2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DP2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DQ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DQ2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DR2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DR2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DS2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DS2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DT2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DT2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DU2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DU2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DV2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DV2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DW2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DW2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DX2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DX2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DY2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DY2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DZ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="DZ2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EA2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EA2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EB2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EB2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EC2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EC2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="ED2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="ED2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EE2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EE2" s="82" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EF2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EF2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EG2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EG2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EH2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EH2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EI2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EI2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EJ2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EJ2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EK2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EK2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EL2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EL2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EM2" s="9" t="e">
+        <v/>
+      </c>
+      <c r="EM2" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6015,281 +5679,281 @@
         <f t="shared" ref="BV3" si="5">BU3+1</f>
         <v>#REF!</v>
       </c>
-      <c r="BW3" s="10" t="e">
-        <f t="shared" ref="BW3" si="6">BV3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BX3" s="10" t="e">
-        <f t="shared" ref="BX3" si="7">BW3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY3" s="10" t="e">
-        <f t="shared" ref="BY3" si="8">BX3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ3" s="10" t="e">
-        <f t="shared" ref="BZ3" si="9">BY3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CA3" s="10" t="e">
-        <f t="shared" ref="CA3" si="10">BZ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CB3" s="10" t="e">
-        <f t="shared" ref="CB3" si="11">CA3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CC3" s="10" t="e">
-        <f t="shared" ref="CC3" si="12">CB3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CD3" s="10" t="e">
-        <f t="shared" ref="CD3" si="13">CC3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CE3" s="10" t="e">
-        <f t="shared" ref="CE3" si="14">CD3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CF3" s="10" t="e">
-        <f t="shared" ref="CF3" si="15">CE3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CG3" s="10" t="e">
-        <f t="shared" ref="CG3" si="16">CF3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CH3" s="10" t="e">
-        <f t="shared" ref="CH3" si="17">CG3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CI3" s="10" t="e">
-        <f t="shared" ref="CI3" si="18">CH3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CJ3" s="10" t="e">
-        <f t="shared" ref="CJ3" si="19">CI3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CK3" s="10" t="e">
-        <f t="shared" ref="CK3" si="20">CJ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CL3" s="10" t="e">
-        <f t="shared" ref="CL3" si="21">CK3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CM3" s="10" t="e">
-        <f t="shared" ref="CM3" si="22">CL3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CN3" s="10" t="e">
-        <f t="shared" ref="CN3" si="23">CM3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CO3" s="10" t="e">
-        <f t="shared" ref="CO3" si="24">CN3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CP3" s="10" t="e">
-        <f t="shared" ref="CP3" si="25">CO3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ3" s="10" t="e">
-        <f t="shared" ref="CQ3" si="26">CP3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CR3" s="10" t="e">
-        <f t="shared" ref="CR3" si="27">CQ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CS3" s="10" t="e">
-        <f t="shared" ref="CS3" si="28">CR3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CT3" s="10" t="e">
-        <f t="shared" ref="CT3" si="29">CS3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CU3" s="10" t="e">
-        <f t="shared" ref="CU3" si="30">CT3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CV3" s="10" t="e">
-        <f t="shared" ref="CV3" si="31">CU3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CW3" s="10" t="e">
-        <f t="shared" ref="CW3" si="32">CV3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CX3" s="10" t="e">
-        <f t="shared" ref="CX3" si="33">CW3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CY3" s="10" t="e">
-        <f t="shared" ref="CY3" si="34">CX3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="CZ3" s="10" t="e">
-        <f t="shared" ref="CZ3" si="35">CY3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DA3" s="10" t="e">
-        <f t="shared" ref="DA3" si="36">CZ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DB3" s="10" t="e">
-        <f t="shared" ref="DB3" si="37">DA3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DC3" s="10" t="e">
-        <f t="shared" ref="DC3" si="38">DB3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DD3" s="10" t="e">
-        <f t="shared" ref="DD3" si="39">DC3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DE3" s="10" t="e">
-        <f t="shared" ref="DE3" si="40">DD3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DF3" s="10" t="e">
-        <f t="shared" ref="DF3" si="41">DE3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DG3" s="10" t="e">
-        <f t="shared" ref="DG3" si="42">DF3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DH3" s="10" t="e">
-        <f t="shared" ref="DH3" si="43">DG3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DI3" s="10" t="e">
-        <f t="shared" ref="DI3" si="44">DH3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DJ3" s="10" t="e">
-        <f t="shared" ref="DJ3" si="45">DI3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DK3" s="10" t="e">
-        <f t="shared" ref="DK3" si="46">DJ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DL3" s="10" t="e">
-        <f t="shared" ref="DL3" si="47">DK3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DM3" s="10" t="e">
-        <f t="shared" ref="DM3" si="48">DL3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DN3" s="10" t="e">
-        <f t="shared" ref="DN3" si="49">DM3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DO3" s="10" t="e">
-        <f t="shared" ref="DO3" si="50">DN3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DP3" s="10" t="e">
-        <f t="shared" ref="DP3" si="51">DO3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DQ3" s="10" t="e">
-        <f t="shared" ref="DQ3" si="52">DP3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DR3" s="10" t="e">
-        <f t="shared" ref="DR3" si="53">DQ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DS3" s="10" t="e">
-        <f t="shared" ref="DS3" si="54">DR3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DT3" s="10" t="e">
-        <f t="shared" ref="DT3" si="55">DS3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DU3" s="10" t="e">
-        <f t="shared" ref="DU3" si="56">DT3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DV3" s="10" t="e">
-        <f t="shared" ref="DV3" si="57">DU3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DW3" s="10" t="e">
-        <f t="shared" ref="DW3" si="58">DV3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DX3" s="10" t="e">
-        <f t="shared" ref="DX3" si="59">DW3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DY3" s="10" t="e">
-        <f t="shared" ref="DY3" si="60">DX3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DZ3" s="10" t="e">
-        <f t="shared" ref="DZ3" si="61">DY3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EA3" s="10" t="e">
-        <f t="shared" ref="EA3" si="62">DZ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EB3" s="10" t="e">
-        <f t="shared" ref="EB3" si="63">EA3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EC3" s="10" t="e">
-        <f t="shared" ref="EC3" si="64">EB3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="ED3" s="10" t="e">
-        <f t="shared" ref="ED3" si="65">EC3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EE3" s="10" t="e">
-        <f t="shared" ref="EE3" si="66">ED3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EF3" s="10" t="e">
-        <f t="shared" ref="EF3" si="67">EE3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EG3" s="10" t="e">
-        <f t="shared" ref="EG3" si="68">EF3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EH3" s="10" t="e">
-        <f t="shared" ref="EH3" si="69">EG3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EI3" s="10" t="e">
-        <f t="shared" ref="EI3" si="70">EH3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EJ3" s="10" t="e">
-        <f t="shared" ref="EJ3" si="71">EI3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EK3" s="10" t="e">
-        <f t="shared" ref="EK3" si="72">EJ3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EL3" s="10" t="e">
-        <f t="shared" ref="EL3:EM3" si="73">EK3+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="EM3" s="10" t="e">
-        <f t="shared" si="73"/>
-        <v>#REF!</v>
+      <c r="BW3" s="10">
+        <f>'Config '!B3</f>
+        <v>44067</v>
+      </c>
+      <c r="BX3" s="10">
+        <f t="shared" ref="BX3" si="6">BW3+1</f>
+        <v>44068</v>
+      </c>
+      <c r="BY3" s="10">
+        <f t="shared" ref="BY3" si="7">BX3+1</f>
+        <v>44069</v>
+      </c>
+      <c r="BZ3" s="10">
+        <f t="shared" ref="BZ3" si="8">BY3+1</f>
+        <v>44070</v>
+      </c>
+      <c r="CA3" s="10">
+        <f t="shared" ref="CA3" si="9">BZ3+1</f>
+        <v>44071</v>
+      </c>
+      <c r="CB3" s="10">
+        <f t="shared" ref="CB3" si="10">CA3+1</f>
+        <v>44072</v>
+      </c>
+      <c r="CC3" s="10">
+        <f t="shared" ref="CC3" si="11">CB3+1</f>
+        <v>44073</v>
+      </c>
+      <c r="CD3" s="10">
+        <f t="shared" ref="CD3" si="12">CC3+1</f>
+        <v>44074</v>
+      </c>
+      <c r="CE3" s="10">
+        <f t="shared" ref="CE3" si="13">CD3+1</f>
+        <v>44075</v>
+      </c>
+      <c r="CF3" s="10">
+        <f t="shared" ref="CF3" si="14">CE3+1</f>
+        <v>44076</v>
+      </c>
+      <c r="CG3" s="10">
+        <f t="shared" ref="CG3" si="15">CF3+1</f>
+        <v>44077</v>
+      </c>
+      <c r="CH3" s="10">
+        <f t="shared" ref="CH3" si="16">CG3+1</f>
+        <v>44078</v>
+      </c>
+      <c r="CI3" s="10">
+        <f t="shared" ref="CI3" si="17">CH3+1</f>
+        <v>44079</v>
+      </c>
+      <c r="CJ3" s="10">
+        <f t="shared" ref="CJ3" si="18">CI3+1</f>
+        <v>44080</v>
+      </c>
+      <c r="CK3" s="10">
+        <f t="shared" ref="CK3" si="19">CJ3+1</f>
+        <v>44081</v>
+      </c>
+      <c r="CL3" s="10">
+        <f t="shared" ref="CL3" si="20">CK3+1</f>
+        <v>44082</v>
+      </c>
+      <c r="CM3" s="10">
+        <f t="shared" ref="CM3" si="21">CL3+1</f>
+        <v>44083</v>
+      </c>
+      <c r="CN3" s="10">
+        <f t="shared" ref="CN3" si="22">CM3+1</f>
+        <v>44084</v>
+      </c>
+      <c r="CO3" s="10">
+        <f t="shared" ref="CO3" si="23">CN3+1</f>
+        <v>44085</v>
+      </c>
+      <c r="CP3" s="10">
+        <f t="shared" ref="CP3" si="24">CO3+1</f>
+        <v>44086</v>
+      </c>
+      <c r="CQ3" s="10">
+        <f t="shared" ref="CQ3" si="25">CP3+1</f>
+        <v>44087</v>
+      </c>
+      <c r="CR3" s="10">
+        <f t="shared" ref="CR3" si="26">CQ3+1</f>
+        <v>44088</v>
+      </c>
+      <c r="CS3" s="10">
+        <f t="shared" ref="CS3" si="27">CR3+1</f>
+        <v>44089</v>
+      </c>
+      <c r="CT3" s="10">
+        <f t="shared" ref="CT3" si="28">CS3+1</f>
+        <v>44090</v>
+      </c>
+      <c r="CU3" s="10">
+        <f t="shared" ref="CU3" si="29">CT3+1</f>
+        <v>44091</v>
+      </c>
+      <c r="CV3" s="10">
+        <f t="shared" ref="CV3" si="30">CU3+1</f>
+        <v>44092</v>
+      </c>
+      <c r="CW3" s="10">
+        <f t="shared" ref="CW3" si="31">CV3+1</f>
+        <v>44093</v>
+      </c>
+      <c r="CX3" s="10">
+        <f t="shared" ref="CX3" si="32">CW3+1</f>
+        <v>44094</v>
+      </c>
+      <c r="CY3" s="10">
+        <f t="shared" ref="CY3" si="33">CX3+1</f>
+        <v>44095</v>
+      </c>
+      <c r="CZ3" s="10">
+        <f t="shared" ref="CZ3" si="34">CY3+1</f>
+        <v>44096</v>
+      </c>
+      <c r="DA3" s="10">
+        <f t="shared" ref="DA3" si="35">CZ3+1</f>
+        <v>44097</v>
+      </c>
+      <c r="DB3" s="10">
+        <f t="shared" ref="DB3" si="36">DA3+1</f>
+        <v>44098</v>
+      </c>
+      <c r="DC3" s="10">
+        <f t="shared" ref="DC3" si="37">DB3+1</f>
+        <v>44099</v>
+      </c>
+      <c r="DD3" s="10">
+        <f t="shared" ref="DD3" si="38">DC3+1</f>
+        <v>44100</v>
+      </c>
+      <c r="DE3" s="10">
+        <f t="shared" ref="DE3" si="39">DD3+1</f>
+        <v>44101</v>
+      </c>
+      <c r="DF3" s="10">
+        <f t="shared" ref="DF3" si="40">DE3+1</f>
+        <v>44102</v>
+      </c>
+      <c r="DG3" s="10">
+        <f t="shared" ref="DG3" si="41">DF3+1</f>
+        <v>44103</v>
+      </c>
+      <c r="DH3" s="10">
+        <f t="shared" ref="DH3" si="42">DG3+1</f>
+        <v>44104</v>
+      </c>
+      <c r="DI3" s="10">
+        <f t="shared" ref="DI3" si="43">DH3+1</f>
+        <v>44105</v>
+      </c>
+      <c r="DJ3" s="10">
+        <f t="shared" ref="DJ3" si="44">DI3+1</f>
+        <v>44106</v>
+      </c>
+      <c r="DK3" s="10">
+        <f t="shared" ref="DK3" si="45">DJ3+1</f>
+        <v>44107</v>
+      </c>
+      <c r="DL3" s="10">
+        <f t="shared" ref="DL3" si="46">DK3+1</f>
+        <v>44108</v>
+      </c>
+      <c r="DM3" s="10">
+        <f t="shared" ref="DM3" si="47">DL3+1</f>
+        <v>44109</v>
+      </c>
+      <c r="DN3" s="10">
+        <f t="shared" ref="DN3" si="48">DM3+1</f>
+        <v>44110</v>
+      </c>
+      <c r="DO3" s="10">
+        <f t="shared" ref="DO3" si="49">DN3+1</f>
+        <v>44111</v>
+      </c>
+      <c r="DP3" s="10">
+        <f t="shared" ref="DP3" si="50">DO3+1</f>
+        <v>44112</v>
+      </c>
+      <c r="DQ3" s="10">
+        <f t="shared" ref="DQ3" si="51">DP3+1</f>
+        <v>44113</v>
+      </c>
+      <c r="DR3" s="10">
+        <f t="shared" ref="DR3" si="52">DQ3+1</f>
+        <v>44114</v>
+      </c>
+      <c r="DS3" s="10">
+        <f t="shared" ref="DS3" si="53">DR3+1</f>
+        <v>44115</v>
+      </c>
+      <c r="DT3" s="10">
+        <f t="shared" ref="DT3" si="54">DS3+1</f>
+        <v>44116</v>
+      </c>
+      <c r="DU3" s="10">
+        <f t="shared" ref="DU3" si="55">DT3+1</f>
+        <v>44117</v>
+      </c>
+      <c r="DV3" s="10">
+        <f t="shared" ref="DV3" si="56">DU3+1</f>
+        <v>44118</v>
+      </c>
+      <c r="DW3" s="10">
+        <f t="shared" ref="DW3" si="57">DV3+1</f>
+        <v>44119</v>
+      </c>
+      <c r="DX3" s="10">
+        <f t="shared" ref="DX3" si="58">DW3+1</f>
+        <v>44120</v>
+      </c>
+      <c r="DY3" s="10">
+        <f t="shared" ref="DY3" si="59">DX3+1</f>
+        <v>44121</v>
+      </c>
+      <c r="DZ3" s="10">
+        <f t="shared" ref="DZ3" si="60">DY3+1</f>
+        <v>44122</v>
+      </c>
+      <c r="EA3" s="10">
+        <f t="shared" ref="EA3" si="61">DZ3+1</f>
+        <v>44123</v>
+      </c>
+      <c r="EB3" s="10">
+        <f t="shared" ref="EB3" si="62">EA3+1</f>
+        <v>44124</v>
+      </c>
+      <c r="EC3" s="10">
+        <f t="shared" ref="EC3" si="63">EB3+1</f>
+        <v>44125</v>
+      </c>
+      <c r="ED3" s="10">
+        <f t="shared" ref="ED3" si="64">EC3+1</f>
+        <v>44126</v>
+      </c>
+      <c r="EE3" s="10">
+        <f t="shared" ref="EE3" si="65">ED3+1</f>
+        <v>44127</v>
+      </c>
+      <c r="EF3" s="10">
+        <f t="shared" ref="EF3" si="66">EE3+1</f>
+        <v>44128</v>
+      </c>
+      <c r="EG3" s="10">
+        <f t="shared" ref="EG3" si="67">EF3+1</f>
+        <v>44129</v>
+      </c>
+      <c r="EH3" s="10">
+        <f t="shared" ref="EH3" si="68">EG3+1</f>
+        <v>44130</v>
+      </c>
+      <c r="EI3" s="10">
+        <f t="shared" ref="EI3" si="69">EH3+1</f>
+        <v>44131</v>
+      </c>
+      <c r="EJ3" s="10">
+        <f t="shared" ref="EJ3" si="70">EI3+1</f>
+        <v>44132</v>
+      </c>
+      <c r="EK3" s="10">
+        <f t="shared" ref="EK3" si="71">EJ3+1</f>
+        <v>44133</v>
+      </c>
+      <c r="EL3" s="10">
+        <f t="shared" ref="EL3:EM3" si="72">EK3+1</f>
+        <v>44134</v>
+      </c>
+      <c r="EM3" s="10">
+        <f t="shared" si="72"/>
+        <v>44135</v>
       </c>
     </row>
     <row r="4" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6313,239 +5977,239 @@
         <v>#REF!</v>
       </c>
       <c r="I4" s="28" t="e">
-        <f t="shared" ref="I4:BO4" si="74">WEEKDAY(I3,1)</f>
+        <f t="shared" ref="I4:BO4" si="73">WEEKDAY(I3,1)</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="K4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="L4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="M4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="N4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="O4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="P4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="Q4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="R4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="S4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="T4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="U4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="V4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="W4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="X4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="Y4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="Z4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AA4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AB4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AC4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AD4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AE4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AF4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AG4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AH4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AI4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AJ4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AK4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AL4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AM4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AN4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AO4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AP4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AQ4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AR4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AS4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AT4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AU4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AV4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AW4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AX4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AY4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="AZ4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BA4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BB4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BC4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BD4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BE4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BF4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BG4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BH4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BI4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BJ4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BK4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BL4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BM4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BN4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BO4" s="28" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="BP4" s="28" t="e">
@@ -6553,304 +6217,304 @@
         <v>#REF!</v>
       </c>
       <c r="BQ4" s="28" t="e">
-        <f t="shared" ref="BQ4:BS4" si="75">WEEKDAY(BQ3,1)</f>
+        <f t="shared" ref="BQ4:BS4" si="74">WEEKDAY(BQ3,1)</f>
         <v>#REF!</v>
       </c>
       <c r="BR4" s="28" t="e">
+        <f t="shared" si="74"/>
+        <v>#REF!</v>
+      </c>
+      <c r="BS4" s="28" t="e">
+        <f t="shared" si="74"/>
+        <v>#REF!</v>
+      </c>
+      <c r="BT4" s="28" t="e">
+        <f t="shared" ref="BT4:CZ4" si="75">WEEKDAY(BT3,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BU4" s="28" t="e">
         <f t="shared" si="75"/>
         <v>#REF!</v>
       </c>
-      <c r="BS4" s="28" t="e">
+      <c r="BV4" s="28" t="e">
         <f t="shared" si="75"/>
         <v>#REF!</v>
       </c>
-      <c r="BT4" s="28" t="e">
-        <f t="shared" ref="BT4:CZ4" si="76">WEEKDAY(BT3,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BU4" s="28" t="e">
+      <c r="BW4" s="28">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="BX4" s="28">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="BY4" s="28">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="28">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="CA4" s="28">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="CB4" s="28">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="CC4" s="28">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="CD4" s="28">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="CE4" s="28">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="CF4" s="28">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="CG4" s="28">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="CH4" s="28">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="CI4" s="28">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="CJ4" s="28">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="CK4" s="28">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="CL4" s="28">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="CM4" s="28">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="CN4" s="28">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="CO4" s="28">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="CP4" s="28">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="CQ4" s="28">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="CR4" s="28">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="CS4" s="28">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="CT4" s="28">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="CU4" s="28">
+        <f t="shared" si="75"/>
+        <v>5</v>
+      </c>
+      <c r="CV4" s="28">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="CW4" s="28">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="CX4" s="28">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="CY4" s="28">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="CZ4" s="28">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="DA4" s="28">
+        <f t="shared" ref="DA4:EL4" si="76">WEEKDAY(DA3,1)</f>
+        <v>4</v>
+      </c>
+      <c r="DB4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BV4" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="DC4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BW4" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="DD4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BX4" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="DE4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BY4" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ4" s="28" t="e">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CA4" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="DH4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CB4" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="DI4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CC4" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="DJ4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CD4" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="DK4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CE4" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="DL4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CF4" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CG4" s="28" t="e">
+        <v>2</v>
+      </c>
+      <c r="DN4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CH4" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="DO4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CI4" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="DP4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CJ4" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="DQ4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CK4" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="DR4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CL4" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="DS4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CM4" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DT4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CN4" s="28" t="e">
+        <v>2</v>
+      </c>
+      <c r="DU4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CO4" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="DV4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CP4" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="DW4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ4" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="DX4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CR4" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="DY4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CS4" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="DZ4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CT4" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="EA4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CU4" s="28" t="e">
+        <v>2</v>
+      </c>
+      <c r="EB4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CV4" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="EC4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CW4" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="ED4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CX4" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="EE4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CY4" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="EF4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CZ4" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="EG4" s="28">
         <f t="shared" si="76"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DA4" s="28" t="e">
-        <f t="shared" ref="DA4:EL4" si="77">WEEKDAY(DA3,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="DB4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DC4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DD4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DE4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DF4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DG4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DH4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DI4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DJ4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DK4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DL4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DM4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DN4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DO4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DP4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DQ4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DR4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DS4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DT4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DU4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DV4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DW4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DX4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DY4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DZ4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EA4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EB4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EC4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="ED4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EE4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EF4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EG4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EH4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EI4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EJ4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EK4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EL4" s="28" t="e">
-        <f t="shared" si="77"/>
-        <v>#REF!</v>
-      </c>
-      <c r="EM4" s="28" t="e">
-        <f t="shared" ref="EM4" si="78">WEEKDAY(EM3,1)</f>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="EH4" s="28">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+      <c r="EI4" s="28">
+        <f t="shared" si="76"/>
+        <v>3</v>
+      </c>
+      <c r="EJ4" s="28">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="EK4" s="28">
+        <f t="shared" si="76"/>
+        <v>5</v>
+      </c>
+      <c r="EL4" s="28">
+        <f t="shared" si="76"/>
+        <v>6</v>
+      </c>
+      <c r="EM4" s="28">
+        <f t="shared" ref="EM4" si="77">WEEKDAY(EM3,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6863,7 +6527,7 @@
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="33">
@@ -7013,7 +6677,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15">
@@ -7164,7 +6828,7 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15">
@@ -8805,10 +8469,10 @@
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
       <c r="D18" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="14">
         <v>44071</v>
@@ -8956,12 +8620,12 @@
     <row r="19" spans="1:143" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" s="14">
         <v>44067</v>
@@ -9114,7 +8778,7 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" s="14">
         <v>44067</v>
@@ -9267,7 +8931,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" s="14">
         <v>44067</v>
@@ -9420,7 +9084,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
@@ -9569,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
@@ -15583,16 +15247,12 @@
     <row r="64" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="24"/>
       <c r="B64" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
-      <c r="E64" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="49">
-        <v>44067</v>
-      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="50"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
@@ -15661,25 +15321,25 @@
       <c r="BT64" s="52"/>
       <c r="BU64" s="52"/>
       <c r="BV64" s="52"/>
-      <c r="BW64" s="34"/>
-      <c r="BX64" s="34"/>
-      <c r="BY64" s="34"/>
-      <c r="BZ64" s="34"/>
-      <c r="CA64" s="34"/>
+      <c r="BW64" s="83"/>
+      <c r="BX64" s="83"/>
+      <c r="BY64" s="83"/>
+      <c r="BZ64" s="83"/>
+      <c r="CA64" s="83"/>
       <c r="CB64" s="52"/>
       <c r="CC64" s="52"/>
-      <c r="CD64" s="34"/>
-      <c r="CE64" s="34"/>
-      <c r="CF64" s="34"/>
-      <c r="CG64" s="34"/>
-      <c r="CH64" s="34"/>
+      <c r="CD64" s="83"/>
+      <c r="CE64" s="83"/>
+      <c r="CF64" s="83"/>
+      <c r="CG64" s="83"/>
+      <c r="CH64" s="83"/>
       <c r="CI64" s="52"/>
       <c r="CJ64" s="52"/>
       <c r="CK64" s="52"/>
-      <c r="CL64" s="34"/>
-      <c r="CM64" s="34"/>
-      <c r="CN64" s="34"/>
-      <c r="CO64" s="34"/>
+      <c r="CL64" s="83"/>
+      <c r="CM64" s="83"/>
+      <c r="CN64" s="83"/>
+      <c r="CO64" s="83"/>
       <c r="CP64" s="52"/>
       <c r="CQ64" s="52"/>
       <c r="CR64" s="52"/>
@@ -15734,16 +15394,10 @@
     <row r="65" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24"/>
       <c r="B65" s="46"/>
-      <c r="C65" s="46" t="s">
-        <v>65</v>
-      </c>
+      <c r="C65" s="46"/>
       <c r="D65" s="47"/>
-      <c r="E65" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="49">
-        <v>44067</v>
-      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="50"/>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
@@ -15812,14 +15466,14 @@
       <c r="BT65" s="52"/>
       <c r="BU65" s="52"/>
       <c r="BV65" s="52"/>
-      <c r="BW65" s="22"/>
+      <c r="BW65" s="73"/>
       <c r="BX65" s="52"/>
       <c r="BY65" s="52"/>
       <c r="BZ65" s="52"/>
       <c r="CA65" s="52"/>
       <c r="CB65" s="52"/>
       <c r="CC65" s="52"/>
-      <c r="CD65" s="22"/>
+      <c r="CD65" s="73"/>
       <c r="CE65" s="52"/>
       <c r="CF65" s="52"/>
       <c r="CG65" s="52"/>
@@ -15827,7 +15481,7 @@
       <c r="CI65" s="52"/>
       <c r="CJ65" s="52"/>
       <c r="CK65" s="52"/>
-      <c r="CL65" s="22"/>
+      <c r="CL65" s="73"/>
       <c r="CM65" s="52"/>
       <c r="CN65" s="52"/>
       <c r="CO65" s="52"/>
@@ -15885,13 +15539,9 @@
     <row r="66" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="24"/>
       <c r="B66" s="46"/>
-      <c r="C66" s="46" t="s">
-        <v>66</v>
-      </c>
+      <c r="C66" s="46"/>
       <c r="D66" s="47"/>
-      <c r="E66" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="E66" s="48"/>
       <c r="F66" s="49"/>
       <c r="G66" s="50"/>
       <c r="H66" s="51"/>
@@ -15962,14 +15612,14 @@
       <c r="BU66" s="52"/>
       <c r="BV66" s="52"/>
       <c r="BW66" s="52"/>
-      <c r="BX66" s="22"/>
+      <c r="BX66" s="73"/>
       <c r="BY66" s="52"/>
       <c r="BZ66" s="52"/>
       <c r="CA66" s="52"/>
       <c r="CB66" s="52"/>
       <c r="CC66" s="52"/>
       <c r="CD66" s="52"/>
-      <c r="CE66" s="22"/>
+      <c r="CE66" s="73"/>
       <c r="CF66" s="52"/>
       <c r="CG66" s="52"/>
       <c r="CH66" s="52"/>
@@ -15977,7 +15627,7 @@
       <c r="CJ66" s="52"/>
       <c r="CK66" s="52"/>
       <c r="CL66" s="52"/>
-      <c r="CM66" s="22"/>
+      <c r="CM66" s="73"/>
       <c r="CN66" s="52"/>
       <c r="CO66" s="52"/>
       <c r="CP66" s="52"/>
@@ -16034,13 +15684,9 @@
     <row r="67" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="24"/>
       <c r="B67" s="46"/>
-      <c r="C67" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="C67" s="46"/>
       <c r="D67" s="47"/>
-      <c r="E67" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="E67" s="48"/>
       <c r="F67" s="49"/>
       <c r="G67" s="50"/>
       <c r="H67" s="51"/>
@@ -16112,14 +15758,14 @@
       <c r="BV67" s="52"/>
       <c r="BW67" s="52"/>
       <c r="BX67" s="52"/>
-      <c r="BY67" s="22"/>
+      <c r="BY67" s="73"/>
       <c r="BZ67" s="52"/>
       <c r="CA67" s="52"/>
       <c r="CB67" s="52"/>
       <c r="CC67" s="52"/>
       <c r="CD67" s="52"/>
       <c r="CE67" s="73"/>
-      <c r="CF67" s="22"/>
+      <c r="CF67" s="73"/>
       <c r="CG67" s="52"/>
       <c r="CH67" s="52"/>
       <c r="CI67" s="52"/>
@@ -16127,7 +15773,7 @@
       <c r="CK67" s="52"/>
       <c r="CL67" s="52"/>
       <c r="CM67" s="52"/>
-      <c r="CN67" s="22"/>
+      <c r="CN67" s="73"/>
       <c r="CO67" s="52"/>
       <c r="CP67" s="52"/>
       <c r="CQ67" s="52"/>
@@ -16183,13 +15829,9 @@
     <row r="68" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="24"/>
       <c r="B68" s="46"/>
-      <c r="C68" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="C68" s="46"/>
       <c r="D68" s="47"/>
-      <c r="E68" s="48">
-        <v>50</v>
-      </c>
+      <c r="E68" s="48"/>
       <c r="F68" s="49"/>
       <c r="G68" s="50"/>
       <c r="H68" s="51"/>
@@ -16262,14 +15904,14 @@
       <c r="BW68" s="52"/>
       <c r="BX68" s="52"/>
       <c r="BY68" s="52"/>
-      <c r="BZ68" s="22"/>
+      <c r="BZ68" s="73"/>
       <c r="CA68" s="52"/>
       <c r="CB68" s="52"/>
       <c r="CC68" s="52"/>
       <c r="CD68" s="52"/>
       <c r="CE68" s="52"/>
       <c r="CF68" s="52"/>
-      <c r="CG68" s="22"/>
+      <c r="CG68" s="73"/>
       <c r="CH68" s="52"/>
       <c r="CI68" s="52"/>
       <c r="CJ68" s="52"/>
@@ -16277,7 +15919,7 @@
       <c r="CL68" s="52"/>
       <c r="CM68" s="52"/>
       <c r="CN68" s="52"/>
-      <c r="CO68" s="22"/>
+      <c r="CO68" s="73"/>
       <c r="CP68" s="52"/>
       <c r="CQ68" s="52"/>
       <c r="CR68" s="52"/>
@@ -19270,7 +18912,7 @@
     <row r="89" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="42"/>
       <c r="B89" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
@@ -25875,7 +25517,7 @@
     <row r="134" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="42"/>
       <c r="B134" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="30"/>
@@ -26022,9 +25664,7 @@
     <row r="135" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="42"/>
       <c r="B135" s="46"/>
-      <c r="C135" s="46" t="s">
-        <v>65</v>
-      </c>
+      <c r="C135" s="46"/>
       <c r="D135" s="47"/>
       <c r="E135" s="63"/>
       <c r="F135" s="49"/>
@@ -26169,9 +25809,7 @@
     <row r="136" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="42"/>
       <c r="B136" s="46"/>
-      <c r="C136" s="46" t="s">
-        <v>66</v>
-      </c>
+      <c r="C136" s="46"/>
       <c r="D136" s="47"/>
       <c r="E136" s="63"/>
       <c r="F136" s="49"/>
@@ -26316,9 +25954,7 @@
     <row r="137" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="42"/>
       <c r="B137" s="46"/>
-      <c r="C137" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="C137" s="46"/>
       <c r="D137" s="47"/>
       <c r="E137" s="63"/>
       <c r="F137" s="49"/>
@@ -26463,9 +26099,7 @@
     <row r="138" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="42"/>
       <c r="B138" s="46"/>
-      <c r="C138" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="C138" s="46"/>
       <c r="D138" s="47"/>
       <c r="E138" s="63"/>
       <c r="F138" s="49"/>
@@ -26755,7 +26389,7 @@
     <row r="140" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="42"/>
       <c r="B140" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
@@ -28845,4 +28479,299 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="6">
+        <v>44067</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41433</v>
+      </c>
+      <c r="D3" s="7">
+        <f>WEEKDAY(C3,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="74"/>
+      <c r="C4" s="4">
+        <v>41434</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D23" si="0">WEEKDAY(C4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="75"/>
+      <c r="C5" s="4">
+        <v>41440</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="75"/>
+      <c r="C6" s="4">
+        <v>41441</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="75"/>
+      <c r="C7" s="4">
+        <v>41447</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="75"/>
+      <c r="C8" s="4">
+        <v>41448</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="75"/>
+      <c r="C9" s="4">
+        <v>41454</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="75"/>
+      <c r="C10" s="4">
+        <v>41455</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="75"/>
+      <c r="C11" s="4">
+        <v>41461</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="75"/>
+      <c r="C12" s="4">
+        <v>41462</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="75"/>
+      <c r="C13" s="4">
+        <v>41468</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="75"/>
+      <c r="C14" s="4">
+        <v>41469</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="75"/>
+      <c r="C15" s="4">
+        <v>41475</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="75"/>
+      <c r="C16" s="4">
+        <v>41476</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="75"/>
+      <c r="C17" s="4">
+        <v>41482</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="75"/>
+      <c r="C18" s="4">
+        <v>41483</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="75"/>
+      <c r="C19" s="4">
+        <v>41489</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="75"/>
+      <c r="C20" s="4">
+        <v>41490</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="75"/>
+      <c r="C21" s="4">
+        <v>41496</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="75"/>
+      <c r="C22" s="4">
+        <v>41497</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="76"/>
+      <c r="C23" s="4">
+        <v>41499</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/fsedu_webapp.00.schedule.xlsx
+++ b/fsedu_webapp.00.schedule.xlsx
@@ -19,7 +19,7 @@
     <definedName name="非稼働日" localSheetId="1">'Config '!$C$3:$C$23</definedName>
     <definedName name="非稼働日">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1108,6 +1108,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1117,24 +1130,2011 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="543">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -4864,10 +6864,10 @@
   <dimension ref="A1:EM145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="51" ySplit="4" topLeftCell="BQ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="51" ySplit="4" topLeftCell="CK5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AZ1" sqref="AZ1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomRight" activeCell="CX24" sqref="CX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4885,20 +6885,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:143" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="H2" s="27" t="e">
         <f>H3</f>
         <v>#REF!</v>
@@ -5373,7 +7373,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="EE2" s="82" t="str">
+      <c r="EE2" s="74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5958,11 +7958,11 @@
     </row>
     <row r="4" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
@@ -6517,7 +8517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
@@ -6669,7 +8669,7 @@
       <c r="EL5" s="36"/>
       <c r="EM5" s="36"/>
     </row>
-    <row r="6" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -6820,7 +8820,7 @@
       <c r="EL6" s="37"/>
       <c r="EM6" s="37"/>
     </row>
-    <row r="7" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
@@ -6970,7 +8970,7 @@
       <c r="EL7" s="37"/>
       <c r="EM7" s="37"/>
     </row>
-    <row r="8" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="11"/>
       <c r="C8" s="44"/>
@@ -7123,7 +9123,7 @@
       <c r="EL8" s="37"/>
       <c r="EM8" s="37"/>
     </row>
-    <row r="9" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -7276,7 +9276,7 @@
       <c r="EL9" s="37"/>
       <c r="EM9" s="37"/>
     </row>
-    <row r="10" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -7429,7 +9429,7 @@
       <c r="EL10" s="37"/>
       <c r="EM10" s="37"/>
     </row>
-    <row r="11" spans="1:143" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:143" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8464,7 +10464,7 @@
       <c r="EL17" s="37"/>
       <c r="EM17" s="37"/>
     </row>
-    <row r="18" spans="1:143" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:143" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -9469,21 +11469,21 @@
       <c r="CL24" s="37"/>
       <c r="CM24" s="37"/>
       <c r="CN24" s="37"/>
-      <c r="CO24" s="37"/>
+      <c r="CO24" s="75"/>
       <c r="CP24" s="37"/>
       <c r="CQ24" s="37"/>
       <c r="CR24" s="37"/>
-      <c r="CS24" s="37"/>
-      <c r="CT24" s="37"/>
-      <c r="CU24" s="37"/>
+      <c r="CS24" s="75"/>
+      <c r="CT24" s="75"/>
+      <c r="CU24" s="75"/>
       <c r="CV24" s="37"/>
       <c r="CW24" s="37"/>
       <c r="CX24" s="37"/>
       <c r="CY24" s="37"/>
       <c r="CZ24" s="37"/>
-      <c r="DA24" s="37"/>
-      <c r="DB24" s="37"/>
-      <c r="DC24" s="37"/>
+      <c r="DA24" s="75"/>
+      <c r="DB24" s="75"/>
+      <c r="DC24" s="75"/>
       <c r="DD24" s="37"/>
       <c r="DE24" s="37"/>
       <c r="DF24" s="37"/>
@@ -9969,9 +11969,15 @@
         <v>31</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="E28" s="48">
+        <v>37</v>
+      </c>
+      <c r="F28" s="49">
+        <v>44085</v>
+      </c>
+      <c r="G28" s="50">
+        <v>44104</v>
+      </c>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -10057,26 +12063,26 @@
       <c r="CL28" s="52"/>
       <c r="CM28" s="52"/>
       <c r="CN28" s="52"/>
-      <c r="CO28" s="52"/>
+      <c r="CO28" s="34"/>
       <c r="CP28" s="52"/>
       <c r="CQ28" s="52"/>
       <c r="CR28" s="52"/>
-      <c r="CS28" s="52"/>
-      <c r="CT28" s="52"/>
-      <c r="CU28" s="52"/>
+      <c r="CS28" s="34"/>
+      <c r="CT28" s="34"/>
+      <c r="CU28" s="34"/>
       <c r="CV28" s="52"/>
       <c r="CW28" s="52"/>
       <c r="CX28" s="52"/>
       <c r="CY28" s="52"/>
       <c r="CZ28" s="52"/>
-      <c r="DA28" s="52"/>
-      <c r="DB28" s="52"/>
-      <c r="DC28" s="52"/>
+      <c r="DA28" s="34"/>
+      <c r="DB28" s="34"/>
+      <c r="DC28" s="34"/>
       <c r="DD28" s="52"/>
       <c r="DE28" s="52"/>
-      <c r="DF28" s="52"/>
-      <c r="DG28" s="52"/>
-      <c r="DH28" s="52"/>
+      <c r="DF28" s="34"/>
+      <c r="DG28" s="34"/>
+      <c r="DH28" s="34"/>
       <c r="DI28" s="52"/>
       <c r="DJ28" s="52"/>
       <c r="DK28" s="52"/>
@@ -15321,25 +17327,25 @@
       <c r="BT64" s="52"/>
       <c r="BU64" s="52"/>
       <c r="BV64" s="52"/>
-      <c r="BW64" s="83"/>
-      <c r="BX64" s="83"/>
-      <c r="BY64" s="83"/>
-      <c r="BZ64" s="83"/>
-      <c r="CA64" s="83"/>
+      <c r="BW64" s="75"/>
+      <c r="BX64" s="75"/>
+      <c r="BY64" s="75"/>
+      <c r="BZ64" s="75"/>
+      <c r="CA64" s="75"/>
       <c r="CB64" s="52"/>
       <c r="CC64" s="52"/>
-      <c r="CD64" s="83"/>
-      <c r="CE64" s="83"/>
-      <c r="CF64" s="83"/>
-      <c r="CG64" s="83"/>
-      <c r="CH64" s="83"/>
+      <c r="CD64" s="75"/>
+      <c r="CE64" s="75"/>
+      <c r="CF64" s="75"/>
+      <c r="CG64" s="75"/>
+      <c r="CH64" s="75"/>
       <c r="CI64" s="52"/>
       <c r="CJ64" s="52"/>
       <c r="CK64" s="52"/>
-      <c r="CL64" s="83"/>
-      <c r="CM64" s="83"/>
-      <c r="CN64" s="83"/>
-      <c r="CO64" s="83"/>
+      <c r="CL64" s="75"/>
+      <c r="CM64" s="75"/>
+      <c r="CN64" s="75"/>
+      <c r="CO64" s="75"/>
       <c r="CP64" s="52"/>
       <c r="CQ64" s="52"/>
       <c r="CR64" s="52"/>
@@ -16996,7 +19002,7 @@
       <c r="EL75" s="61"/>
       <c r="EM75" s="61"/>
     </row>
-    <row r="76" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="41" t="s">
         <v>19</v>
       </c>
@@ -17145,7 +19151,7 @@
       <c r="EL76" s="36"/>
       <c r="EM76" s="36"/>
     </row>
-    <row r="77" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -17292,7 +19298,7 @@
       <c r="EL77" s="37"/>
       <c r="EM77" s="37"/>
     </row>
-    <row r="78" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19" t="s">
@@ -17439,7 +19445,7 @@
       <c r="EL78" s="37"/>
       <c r="EM78" s="37"/>
     </row>
-    <row r="79" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42"/>
       <c r="B79" s="11"/>
       <c r="C79" s="44"/>
@@ -17586,7 +19592,7 @@
       <c r="EL79" s="37"/>
       <c r="EM79" s="37"/>
     </row>
-    <row r="80" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -17733,7 +19739,7 @@
       <c r="EL80" s="37"/>
       <c r="EM80" s="37"/>
     </row>
-    <row r="81" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -17880,7 +19886,7 @@
       <c r="EL81" s="37"/>
       <c r="EM81" s="37"/>
     </row>
-    <row r="82" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:143" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -19063,9 +21069,15 @@
         <v>23</v>
       </c>
       <c r="D90" s="19"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
+      <c r="E90" s="26">
+        <v>38.5</v>
+      </c>
+      <c r="F90" s="14">
+        <v>44067</v>
+      </c>
+      <c r="G90" s="15">
+        <v>44085</v>
+      </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -19133,25 +21145,25 @@
       <c r="BT90" s="37"/>
       <c r="BU90" s="37"/>
       <c r="BV90" s="37"/>
-      <c r="BW90" s="37"/>
-      <c r="BX90" s="37"/>
-      <c r="BY90" s="37"/>
-      <c r="BZ90" s="37"/>
-      <c r="CA90" s="37"/>
+      <c r="BW90" s="39"/>
+      <c r="BX90" s="39"/>
+      <c r="BY90" s="39"/>
+      <c r="BZ90" s="39"/>
+      <c r="CA90" s="39"/>
       <c r="CB90" s="37"/>
       <c r="CC90" s="37"/>
-      <c r="CD90" s="37"/>
-      <c r="CE90" s="37"/>
-      <c r="CF90" s="37"/>
-      <c r="CG90" s="37"/>
-      <c r="CH90" s="37"/>
+      <c r="CD90" s="39"/>
+      <c r="CE90" s="39"/>
+      <c r="CF90" s="39"/>
+      <c r="CG90" s="39"/>
+      <c r="CH90" s="39"/>
       <c r="CI90" s="37"/>
       <c r="CJ90" s="37"/>
       <c r="CK90" s="37"/>
-      <c r="CL90" s="37"/>
-      <c r="CM90" s="37"/>
-      <c r="CN90" s="37"/>
-      <c r="CO90" s="37"/>
+      <c r="CL90" s="39"/>
+      <c r="CM90" s="39"/>
+      <c r="CN90" s="39"/>
+      <c r="CO90" s="39"/>
       <c r="CP90" s="37"/>
       <c r="CQ90" s="37"/>
       <c r="CR90" s="37"/>
@@ -19280,11 +21292,11 @@
       <c r="BT91" s="37"/>
       <c r="BU91" s="37"/>
       <c r="BV91" s="37"/>
-      <c r="BW91" s="37"/>
-      <c r="BX91" s="37"/>
-      <c r="BY91" s="37"/>
-      <c r="BZ91" s="37"/>
-      <c r="CA91" s="37"/>
+      <c r="BW91" s="25"/>
+      <c r="BX91" s="25"/>
+      <c r="BY91" s="25"/>
+      <c r="BZ91" s="25"/>
+      <c r="CA91" s="25"/>
       <c r="CB91" s="37"/>
       <c r="CC91" s="37"/>
       <c r="CD91" s="37"/>
@@ -19434,11 +21446,11 @@
       <c r="CA92" s="37"/>
       <c r="CB92" s="37"/>
       <c r="CC92" s="37"/>
-      <c r="CD92" s="37"/>
-      <c r="CE92" s="37"/>
-      <c r="CF92" s="37"/>
-      <c r="CG92" s="37"/>
-      <c r="CH92" s="37"/>
+      <c r="CD92" s="25"/>
+      <c r="CE92" s="25"/>
+      <c r="CF92" s="25"/>
+      <c r="CG92" s="25"/>
+      <c r="CH92" s="25"/>
       <c r="CI92" s="37"/>
       <c r="CJ92" s="37"/>
       <c r="CK92" s="37"/>
@@ -19589,10 +21601,10 @@
       <c r="CI93" s="37"/>
       <c r="CJ93" s="37"/>
       <c r="CK93" s="37"/>
-      <c r="CL93" s="37"/>
-      <c r="CM93" s="37"/>
-      <c r="CN93" s="37"/>
-      <c r="CO93" s="37"/>
+      <c r="CL93" s="25"/>
+      <c r="CM93" s="25"/>
+      <c r="CN93" s="25"/>
+      <c r="CO93" s="25"/>
       <c r="CP93" s="37"/>
       <c r="CQ93" s="37"/>
       <c r="CR93" s="37"/>
@@ -27274,1057 +29286,1631 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:EM4">
-    <cfRule type="cellIs" dxfId="342" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="569" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="570" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:EM14 H6:EM6 H25:EM63 H5:BQ5 BS5:BV5 H8:EM12 H7:BQ7 BS7:BV7 H79:EM145 H76:BQ78 BS76:EM78 CB7:EM7 CB5:EM5 H67:BX67 CB64:CC64 CI64:CK64 CP64:EM64 H64:BV65 BX65:CC65 H66:BW66 BY66:CD66 H69:EM75 H68:BY68 CA68:CF68 BZ67:CD67 CE65:CK65 CG67:CM67 CF66:CL66 CH68:CN68 CM65:EM65 CO67:EM67 CN66:EM66 CP68:EM68">
-    <cfRule type="expression" dxfId="340" priority="369" stopIfTrue="1">
+  <conditionalFormatting sqref="H14:EM14 H6:EM6 H25:EM27 H5:BQ5 BS5:BV5 H8:EM12 H7:BQ7 BS7:BV7 H79:EM89 H76:BQ78 BS76:EM78 CB7:EM7 CB5:EM5 H67:BX67 CB64:CC64 CI64:CK64 CP64:EM64 H64:BV65 BX65:CC65 H66:BW66 BY66:CD66 H69:EM75 H68:BY68 CA68:CF68 BZ67:CD67 CE65:CK65 CG67:CM67 CF66:CL66 CH68:CN68 CM65:EM65 CO67:EM67 CN66:EM66 CP68:EM68 H94:EM145 H90:BV91 CB91:EM91 CB90:CC90 CI90:CK90 CP90:EM90 H92:CC92 CI92:EM92 H93:CK93 CP93:EM93 H29:EM63 H28:CN28 CP28:CR28 CV28:CZ28 DD28:DE28 DI28:EM28">
+    <cfRule type="expression" dxfId="540" priority="565" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="567" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="568" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:EM2">
-    <cfRule type="notContainsBlanks" dxfId="336" priority="375">
+    <cfRule type="notContainsBlanks" dxfId="536" priority="571">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:BS14 H13 J13:BS13 BT13:EM14">
-    <cfRule type="expression" dxfId="335" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="561" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="562" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="563" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="564" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:EO16">
-    <cfRule type="expression" dxfId="331" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="557" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="558" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="559" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="560" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:BS16 H15:I15 L15:BS15 BT15:EO16">
-    <cfRule type="expression" dxfId="327" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="553" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="554" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="555" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="556" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:EO18">
-    <cfRule type="expression" dxfId="323" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="549" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="550" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="551" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="552" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:EO18">
-    <cfRule type="expression" dxfId="319" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="545" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="546" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="547" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="548" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:BV19 CB19:CC19 CI19:CK19 CP19:EO19">
-    <cfRule type="expression" dxfId="315" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="533" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="534" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="535" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="536" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:BV19 CB19:CC19 CI19:CK19 CP19:EO19">
-    <cfRule type="expression" dxfId="311" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="529" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="530" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="531" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="532" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20 L20:BV20 CB20:CC20 CI20:CK20 CP20:EO20">
-    <cfRule type="expression" dxfId="307" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="525" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="526" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="527" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="528" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:EO21">
-    <cfRule type="expression" dxfId="303" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="521" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="522" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="523" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="524" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:EO21">
-    <cfRule type="expression" dxfId="299" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="517" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="518" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="519" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="520" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:EO22">
-    <cfRule type="expression" dxfId="295" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="513" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="514" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="515" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="516" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:EO22">
-    <cfRule type="expression" dxfId="291" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="509" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="510" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="511" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="512" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:EO24">
-    <cfRule type="expression" dxfId="287" priority="309" stopIfTrue="1">
+  <conditionalFormatting sqref="H23:EO23 H24:CN24 CP24:CR24 CV24:CZ24 DD24:EO24">
+    <cfRule type="expression" dxfId="487" priority="505" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="507" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="508" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:EO24">
-    <cfRule type="expression" dxfId="283" priority="305" stopIfTrue="1">
+  <conditionalFormatting sqref="H23:EO23 H24:CN24 CP24:CR24 CV24:CZ24 DD24:EO24">
+    <cfRule type="expression" dxfId="483" priority="501" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="502" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="503" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="504" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="279" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="481" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="482" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="483" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="484" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="275" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="477" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="479" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="480" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="271" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="473" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="474" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="475" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="267" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="469" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="470" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="471" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="472" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5">
-    <cfRule type="expression" dxfId="263" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="465" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="467" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="468" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW7">
-    <cfRule type="expression" dxfId="259" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="461" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR78">
-    <cfRule type="expression" dxfId="255" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="449" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="450" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="451" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="452" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR76">
-    <cfRule type="expression" dxfId="251" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="457" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR77">
-    <cfRule type="expression" dxfId="247" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="453" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7">
-    <cfRule type="expression" dxfId="243" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="445" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="447" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="448" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY7">
-    <cfRule type="expression" dxfId="239" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="441" stopIfTrue="1">
       <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ7">
-    <cfRule type="expression" dxfId="235" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="437" stopIfTrue="1">
       <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="440" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BZ5">
-    <cfRule type="expression" dxfId="231" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="425" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5">
-    <cfRule type="expression" dxfId="227" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="421" stopIfTrue="1">
       <formula>MATCH(BV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7">
-    <cfRule type="expression" dxfId="223" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="417" stopIfTrue="1">
       <formula>MATCH(BV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW19">
-    <cfRule type="expression" dxfId="219" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="413" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="415" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX19">
-    <cfRule type="expression" dxfId="215" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="409" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY19">
-    <cfRule type="expression" dxfId="211" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="405" stopIfTrue="1">
       <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="407" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="408" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ19">
-    <cfRule type="expression" dxfId="207" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="401" stopIfTrue="1">
       <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA19">
-    <cfRule type="expression" dxfId="203" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="397" stopIfTrue="1">
       <formula>MATCH(BV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD19">
-    <cfRule type="expression" dxfId="199" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="393" stopIfTrue="1">
       <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE19">
-    <cfRule type="expression" dxfId="195" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="389" stopIfTrue="1">
       <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="391" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="392" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF19">
-    <cfRule type="expression" dxfId="191" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="385" stopIfTrue="1">
       <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="387" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="388" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG19">
-    <cfRule type="expression" dxfId="187" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="381" stopIfTrue="1">
       <formula>MATCH(CB$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH19">
-    <cfRule type="expression" dxfId="183" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="377" stopIfTrue="1">
       <formula>MATCH(CC$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL19">
-    <cfRule type="expression" dxfId="179" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="373" stopIfTrue="1">
       <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM19">
-    <cfRule type="expression" dxfId="175" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="369" stopIfTrue="1">
       <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN19">
-    <cfRule type="expression" dxfId="171" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="365" stopIfTrue="1">
       <formula>MATCH(CI$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO19">
-    <cfRule type="expression" dxfId="167" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="361" stopIfTrue="1">
       <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW20">
-    <cfRule type="expression" dxfId="163" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="357" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="359" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="360" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX20">
-    <cfRule type="expression" dxfId="159" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="353" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="356" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY20">
-    <cfRule type="expression" dxfId="155" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="349" stopIfTrue="1">
       <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="352" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ20">
-    <cfRule type="expression" dxfId="151" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="345" stopIfTrue="1">
       <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA20">
-    <cfRule type="expression" dxfId="147" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="341" stopIfTrue="1">
       <formula>MATCH(BV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD20">
-    <cfRule type="expression" dxfId="143" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="337" stopIfTrue="1">
       <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE20">
-    <cfRule type="expression" dxfId="139" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="333" stopIfTrue="1">
       <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF20">
-    <cfRule type="expression" dxfId="135" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="329" stopIfTrue="1">
       <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG20">
-    <cfRule type="expression" dxfId="131" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="325" stopIfTrue="1">
       <formula>MATCH(CB$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH20">
-    <cfRule type="expression" dxfId="127" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="321" stopIfTrue="1">
       <formula>MATCH(CC$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL20">
-    <cfRule type="expression" dxfId="123" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="317" stopIfTrue="1">
       <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM20">
-    <cfRule type="expression" dxfId="119" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="313" stopIfTrue="1">
       <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN20">
-    <cfRule type="expression" dxfId="115" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="309" stopIfTrue="1">
       <formula>MATCH(CI$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO20">
-    <cfRule type="expression" dxfId="111" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="305" stopIfTrue="1">
       <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW64">
-    <cfRule type="expression" dxfId="107" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="301" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX64">
-    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="297" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY64">
-    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="293" stopIfTrue="1">
       <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ64">
-    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="289" stopIfTrue="1">
       <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA64">
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="285" stopIfTrue="1">
       <formula>MATCH(BV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD64">
-    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="281" stopIfTrue="1">
       <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE64">
-    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="277" stopIfTrue="1">
       <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF64">
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="273" stopIfTrue="1">
       <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG64">
-    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="269" stopIfTrue="1">
       <formula>MATCH(CB$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH64">
-    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="265" stopIfTrue="1">
       <formula>MATCH(CC$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL64">
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="261" stopIfTrue="1">
       <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM64">
-    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="257" stopIfTrue="1">
       <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN64">
-    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="253" stopIfTrue="1">
       <formula>MATCH(CI$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO64">
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="249" stopIfTrue="1">
       <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW65">
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="245" stopIfTrue="1">
       <formula>MATCH(BR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="248" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX66">
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="241" stopIfTrue="1">
       <formula>MATCH(BS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ68">
+    <cfRule type="expression" dxfId="243" priority="237" stopIfTrue="1">
+      <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="240" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY67">
+    <cfRule type="expression" dxfId="239" priority="233" stopIfTrue="1">
+      <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="235" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD65">
+    <cfRule type="expression" dxfId="235" priority="229" stopIfTrue="1">
+      <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="231" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF67">
+    <cfRule type="expression" dxfId="231" priority="225" stopIfTrue="1">
+      <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="227" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="228" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE67">
+    <cfRule type="expression" dxfId="227" priority="221" stopIfTrue="1">
+      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="223" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="224" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE66">
+    <cfRule type="expression" dxfId="223" priority="217" stopIfTrue="1">
+      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="220" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG68">
+    <cfRule type="expression" dxfId="219" priority="213" stopIfTrue="1">
+      <formula>MATCH(CB$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="214" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="215" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL65">
+    <cfRule type="expression" dxfId="215" priority="209" stopIfTrue="1">
+      <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="210" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="211" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="212" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN67">
+    <cfRule type="expression" dxfId="211" priority="205" stopIfTrue="1">
+      <formula>MATCH(CI$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="207" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="208" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM66">
+    <cfRule type="expression" dxfId="207" priority="201" stopIfTrue="1">
+      <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="203" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="204" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO68">
+    <cfRule type="expression" dxfId="203" priority="197" stopIfTrue="1">
+      <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="199" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW90">
+    <cfRule type="expression" dxfId="187" priority="181" stopIfTrue="1">
+      <formula>MATCH(BW$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="183" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX90">
+    <cfRule type="expression" dxfId="183" priority="177" stopIfTrue="1">
+      <formula>MATCH(BX$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY90">
+    <cfRule type="expression" dxfId="179" priority="173" stopIfTrue="1">
+      <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ90">
+    <cfRule type="expression" dxfId="171" priority="165" stopIfTrue="1">
+      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="168" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA90">
+    <cfRule type="expression" dxfId="167" priority="161" stopIfTrue="1">
+      <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="163" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD90">
+    <cfRule type="expression" dxfId="163" priority="157" stopIfTrue="1">
+      <formula>MATCH(CD$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE90">
+    <cfRule type="expression" dxfId="159" priority="153" stopIfTrue="1">
+      <formula>MATCH(CE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF90">
+    <cfRule type="expression" dxfId="155" priority="149" stopIfTrue="1">
+      <formula>MATCH(CF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG90">
+    <cfRule type="expression" dxfId="151" priority="145" stopIfTrue="1">
+      <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH90">
+    <cfRule type="expression" dxfId="147" priority="141" stopIfTrue="1">
+      <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL90">
+    <cfRule type="expression" dxfId="143" priority="137" stopIfTrue="1">
+      <formula>MATCH(CL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="139" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM90">
+    <cfRule type="expression" dxfId="139" priority="133" stopIfTrue="1">
+      <formula>MATCH(CM$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="135" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="136" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN90">
+    <cfRule type="expression" dxfId="135" priority="129" stopIfTrue="1">
+      <formula>MATCH(CN$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO90">
+    <cfRule type="expression" dxfId="131" priority="125" stopIfTrue="1">
+      <formula>MATCH(CO$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="128" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW91">
+    <cfRule type="expression" dxfId="127" priority="121" stopIfTrue="1">
+      <formula>MATCH(BW$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX91">
+    <cfRule type="expression" dxfId="123" priority="117" stopIfTrue="1">
+      <formula>MATCH(BX$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY91">
+    <cfRule type="expression" dxfId="119" priority="113" stopIfTrue="1">
+      <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ91">
+    <cfRule type="expression" dxfId="115" priority="109" stopIfTrue="1">
+      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA91">
+    <cfRule type="expression" dxfId="111" priority="105" stopIfTrue="1">
+      <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD92">
+    <cfRule type="expression" dxfId="107" priority="101" stopIfTrue="1">
+      <formula>MATCH(CD$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE92">
+    <cfRule type="expression" dxfId="103" priority="97" stopIfTrue="1">
+      <formula>MATCH(CE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF92">
+    <cfRule type="expression" dxfId="99" priority="93" stopIfTrue="1">
+      <formula>MATCH(CF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG92">
+    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+      <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH92">
+    <cfRule type="expression" dxfId="91" priority="85" stopIfTrue="1">
+      <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL93">
+    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+      <formula>MATCH(CL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM93">
+    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+      <formula>MATCH(CM$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN93">
+    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
+      <formula>MATCH(CN$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO93">
+    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
+      <formula>MATCH(CO$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO24">
+    <cfRule type="expression" dxfId="71" priority="65" stopIfTrue="1">
+      <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CS24:CU24">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+      <formula>MATCH(CN$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA24:DC24">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(BU$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -28336,9 +30922,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY67">
+  <conditionalFormatting sqref="CO28">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(BT$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -28350,9 +30936,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD65">
+  <conditionalFormatting sqref="CS28">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(BY$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -28364,9 +30950,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF67">
+  <conditionalFormatting sqref="CT28">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(CA$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CO$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -28378,9 +30964,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE67">
+  <conditionalFormatting sqref="CU28">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CP$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -28392,9 +30978,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE66">
+  <conditionalFormatting sqref="DA28">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(BZ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CV$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -28406,9 +30992,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG68">
+  <conditionalFormatting sqref="DB28">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(CB$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CW$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -28420,9 +31006,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL65">
+  <conditionalFormatting sqref="DC28">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(CG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(CX$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -28434,9 +31020,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN67">
+  <conditionalFormatting sqref="DF28">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(CI$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(DA$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -28448,9 +31034,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM66">
+  <conditionalFormatting sqref="DG28">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(CH$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(DB$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -28462,9 +31048,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO68">
+  <conditionalFormatting sqref="DH28">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(CJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(DC$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
@@ -28523,7 +31109,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="74"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="4">
         <v>41434</v>
       </c>
@@ -28534,7 +31120,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="4">
         <v>41440</v>
       </c>
@@ -28545,7 +31131,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="75"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="4">
         <v>41441</v>
       </c>
@@ -28556,7 +31142,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="75"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="4">
         <v>41447</v>
       </c>
@@ -28567,7 +31153,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="4">
         <v>41448</v>
       </c>
@@ -28578,7 +31164,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="4">
         <v>41454</v>
       </c>
@@ -28589,7 +31175,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="75"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="4">
         <v>41455</v>
       </c>
@@ -28600,7 +31186,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="75"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="4">
         <v>41461</v>
       </c>
@@ -28611,7 +31197,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="75"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="4">
         <v>41462</v>
       </c>
@@ -28622,7 +31208,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="4">
         <v>41468</v>
       </c>
@@ -28633,7 +31219,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="75"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="4">
         <v>41469</v>
       </c>
@@ -28644,7 +31230,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="75"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="4">
         <v>41475</v>
       </c>
@@ -28655,7 +31241,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="75"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="4">
         <v>41476</v>
       </c>
@@ -28666,7 +31252,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="75"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="4">
         <v>41482</v>
       </c>
@@ -28677,7 +31263,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="75"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="4">
         <v>41483</v>
       </c>
@@ -28688,7 +31274,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="75"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="4">
         <v>41489</v>
       </c>
@@ -28699,7 +31285,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="75"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="4">
         <v>41490</v>
       </c>
@@ -28710,7 +31296,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="4">
         <v>41496</v>
       </c>
@@ -28721,7 +31307,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="75"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="4">
         <v>41497</v>
       </c>
@@ -28732,7 +31318,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="76"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="4">
         <v>41499</v>
       </c>
